--- a/data/menu_data.xlsx
+++ b/data/menu_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS\Documents\subwayapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FB44E9-F7C0-490B-88F6-4A29ED1A8ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E1C101-6C7F-4E6A-B99E-5034B98328B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2145" windowWidth="16200" windowHeight="8295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="119">
   <si>
     <t>메뉴</t>
   </si>
@@ -374,6 +374,10 @@
   </si>
   <si>
     <t>['10', '14']</t>
+  </si>
+  <si>
+    <t>['10', '15']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -785,7 +789,8 @@
   <dimension ref="A1:R1326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -74995,7 +75000,7 @@
         <v>3</v>
       </c>
       <c r="B1326" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C1326">
         <v>0</v>

--- a/data/menu_data.xlsx
+++ b/data/menu_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS\Documents\subwayapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF53560-7265-413B-BC0A-565774F41C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480DE8A6-ED8C-4A29-9144-57ED08AE4FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -786,8 +789,8 @@
   <dimension ref="A1:Q1326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B572" sqref="B572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -71071,6 +71074,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
